--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466066.3834296477</v>
+        <v>526901.8583413478</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -661,70 +661,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>202.2946864288972</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.831844153734401</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>82.46119763909351</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>129.7911533725688</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>67.49527204778192</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -1426,19 +1426,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>79.32920716089153</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>68.49439899867237</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>111.9273983130131</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>204.7865225372089</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>162.3364906735233</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>94.63926978364043</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>350.9489277422339</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>57.74928671088589</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>71.27833349215638</v>
+        <v>92.00803688215797</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>344.7067519330207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>193.0434215961223</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>60.95309273077415</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>230.1411690409422</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>127.9394108880948</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>311.4936872159399</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>16.88986550434897</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>70.80276983270103</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>24.59170878023815</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>321.2889091872196</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.91544265059219</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>43.8374309337276</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>314.4801710308341</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>247.1931480991311</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>147.3596012393434</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>53.65867788356588</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>220.468444000713</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>78.40333552909871</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>214.2896383919379</v>
       </c>
       <c r="W38" t="n">
-        <v>248.8850931379797</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.4120358099646</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>283.8147119650133</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>12.07744131265505</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>339.7248796633271</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.91389206607241</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>126.4837616268617</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>232.3056710074059</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="4">
@@ -4515,13 +4515,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4761,7 +4761,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V8" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.90796037760316</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C9" t="n">
-        <v>23.90796037760316</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D9" t="n">
-        <v>23.90796037760316</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,13 +4889,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X9" t="n">
-        <v>23.90796037760316</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.90796037760316</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="10">
@@ -4998,7 +4998,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1267.312047941847</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C11" t="n">
-        <v>898.349531001435</v>
+        <v>1114.740639657645</v>
       </c>
       <c r="D11" t="n">
-        <v>540.0838323946846</v>
+        <v>756.4749410508948</v>
       </c>
       <c r="E11" t="n">
-        <v>540.0838323946846</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F11" t="n">
-        <v>540.0838323946846</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>122.1200242928714</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
@@ -5071,22 +5071,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.546461473041</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V11" t="n">
-        <v>1993.546461473041</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W11" t="n">
-        <v>1640.777806202927</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X11" t="n">
-        <v>1267.312047941847</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y11" t="n">
-        <v>1267.312047941847</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5165,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.9553738610023</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="C13" t="n">
-        <v>270.0191909330954</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="D13" t="n">
-        <v>270.0191909330954</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="E13" t="n">
-        <v>270.0191909330954</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F13" t="n">
-        <v>123.129243435185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G13" t="n">
-        <v>123.129243435185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N13" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594902</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W13" t="n">
-        <v>438.9553738610023</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X13" t="n">
-        <v>438.9553738610023</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.9553738610023</v>
+        <v>438.7118141694735</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1448.013466588444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C14" t="n">
-        <v>1448.013466588444</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D14" t="n">
-        <v>1089.747767981693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
         <v>882.8926947117852</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5308,22 +5308,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.752638628377</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.752638628377</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.752638628377</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y14" t="n">
-        <v>1834.613306652565</v>
+        <v>995.9506728057379</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5357,25 +5357,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5402,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C16" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D16" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E16" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F16" t="n">
         <v>53.94298182036446</v>
@@ -5469,19 +5469,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V16" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W16" t="n">
-        <v>149.5382038240417</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X16" t="n">
-        <v>149.5382038240417</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.5382038240417</v>
+        <v>217.9192350259436</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1563.476704221264</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>1563.476704221264</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1205.211005614513</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>819.4227530162689</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>408.4368482266613</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>1916.245359491378</v>
+        <v>2385.054692817035</v>
       </c>
       <c r="W17" t="n">
-        <v>1563.476704221264</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="X17" t="n">
-        <v>1563.476704221264</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y17" t="n">
-        <v>1563.476704221264</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C19" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D19" t="n">
-        <v>200.8329293182748</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E19" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5703,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>272.8312459770186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.8329293182748</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C20" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
         <v>882.8926947117852</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W20" t="n">
-        <v>2017.897565358469</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X20" t="n">
-        <v>2017.897565358469</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y20" t="n">
-        <v>1627.758233382657</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
         <v>2646.935720430048</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>944.4614752479206</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>944.4614752479206</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>944.4614752479206</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>944.4614752479206</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>533.4755704583131</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>115.5117623565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V23" t="n">
-        <v>2057.295728843236</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.527073573122</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X23" t="n">
-        <v>1331.061315312042</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y23" t="n">
-        <v>1331.061315312042</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424003</v>
@@ -6074,19 +6074,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>290.7987205870805</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>143.9087730891701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y25" t="n">
-        <v>438.7118141694736</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1995.909162857192</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>601.1385180919704</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>183.1747099901572</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>183.1747099901572</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6253,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X26" t="n">
-        <v>2382.509002921313</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y26" t="n">
-        <v>2382.509002921313</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="27">
@@ -6287,10 +6287,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
@@ -6308,22 +6308,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064342</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064342</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="D28" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6420,16 +6420,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1662.48357412947</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C29" t="n">
-        <v>1293.521057189058</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1662.48357412947</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X29" t="n">
-        <v>1662.48357412947</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y29" t="n">
-        <v>1662.48357412947</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C31" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>711.0426784987656</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>711.0426784987656</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>711.0426784987656</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W31" t="n">
-        <v>421.6255084618049</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X31" t="n">
-        <v>421.6255084618049</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1834.613306652565</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C32" t="n">
-        <v>1465.650789712153</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D32" t="n">
-        <v>1107.385091105403</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E32" t="n">
-        <v>721.5968385071585</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533138</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.752638628377</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.752638628377</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X32" t="n">
-        <v>2224.752638628377</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y32" t="n">
-        <v>1834.613306652565</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500.8207968750362</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C34" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D34" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.8207968750362</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1331.061315312042</v>
+        <v>1834.613306652565</v>
       </c>
       <c r="C35" t="n">
-        <v>962.0987983716302</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D35" t="n">
-        <v>603.8330997648798</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>603.8330997648798</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>603.8330997648798</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533133</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733118</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
         <v>1836.345445977174</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2388.358616186807</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2057.295728843236</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.527073573122</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X35" t="n">
-        <v>1331.061315312042</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y35" t="n">
-        <v>1331.061315312042</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610023</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V37" t="n">
-        <v>184.2708856551154</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1995.909162857192</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
         <v>882.8926947117852</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7204,22 +7204,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834949</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V38" t="n">
-        <v>2247.308246834949</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="W38" t="n">
-        <v>1995.909162857192</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X38" t="n">
-        <v>1995.909162857192</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y38" t="n">
-        <v>1995.909162857192</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>325.6879402326645</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>175.5713008203287</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>175.5713008203287</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036446</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U40" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>751.6104138473593</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C41" t="n">
-        <v>751.6104138473593</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D41" t="n">
-        <v>464.928886609972</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U41" t="n">
-        <v>2212.181128500978</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V41" t="n">
-        <v>1881.118241157407</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W41" t="n">
-        <v>1528.349585887293</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X41" t="n">
-        <v>1528.349585887293</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="Y41" t="n">
-        <v>1138.210253911481</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
         <v>1194.968834417902</v>
@@ -7511,28 +7511,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750362</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V43" t="n">
-        <v>246.1363086691493</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1251.855211652197</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C44" t="n">
-        <v>882.8926947117852</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117852</v>
+        <v>1226.049138816156</v>
       </c>
       <c r="E44" t="n">
         <v>882.8926947117852</v>
@@ -7648,7 +7648,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733127</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2655.821927315119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2655.821927315119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2655.821927315119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2402.06014195321</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2402.06014195321</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2402.06014195321</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>2028.59438369213</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1638.455051716319</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,31 +7727,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073963</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.8207968750362</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C46" t="n">
-        <v>373.0594214943678</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>500.8207968750362</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V46" t="n">
-        <v>500.8207968750362</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W46" t="n">
-        <v>500.8207968750362</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X46" t="n">
-        <v>500.8207968750362</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y46" t="n">
-        <v>500.8207968750362</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>382.6009056104135</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8537,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8546,7 +8546,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747172</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9956,7 +9956,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951772</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719081</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,13 +22549,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>162.9782053421103</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22637,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>136.2373682396495</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22676,10 +22676,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>323.8216709537613</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -23001,10 +23001,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>332.8415398760416</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>153.8111226869423</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>26.25440111315061</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23238,10 +23238,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>252.139216699693</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>256.4275007165752</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>67.10475548567764</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>87.67648984312278</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23472,13 +23472,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>270.8064433504674</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>177.1438475350529</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841395</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>50.78177823929082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23709,7 +23709,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>62.83524227856111</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>270.002971759249</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>45.199959188537</v>
@@ -23943,7 +23943,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.3063198599384</v>
+        <v>126.5766164699368</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>4.534216784392356</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>193.1945170599313</v>
       </c>
     </row>
     <row r="21">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>12.09831362247004</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24183,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>262.969680033583</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>139.5899316375268</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>72.60755131498752</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>78.24366890293329</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24420,7 +24420,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>23.99190535676641</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>58.2374134625291</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>131.7256075138634</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>96.50703242634988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24660,7 +24660,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>330.0913328404448</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>27.95205953019337</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>208.1196628074921</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>242.6855674028634</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>68.2536706326465</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>159.6828976425804</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,16 +24973,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>19.88721985928439</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>311.6142138874417</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>193.315726020082</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>101.4286446528386</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>113.462620078197</v>
       </c>
       <c r="W38" t="n">
-        <v>100.3558755794333</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>25.00901221296662</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3958356744437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>70.86832965566964</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>357.653659365814</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>96.251604756294</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>42.20549040893468</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>13.56451050873928</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25921,19 +25921,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>40.7630594717661</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>53.97620323457184</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816143.685183753</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.6851837528</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816143.6851837528</v>
+        <v>816143.6851837529</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816143.6851837529</v>
+        <v>816143.685183753</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
@@ -26349,13 +26349,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="D4" t="n">
         <v>33649.84678425771</v>
@@ -26450,7 +26450,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
@@ -26459,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340947</v>
@@ -26508,7 +26508,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41990.01967454166</v>
+        <v>-30993.81011650522</v>
       </c>
       <c r="C6" t="n">
-        <v>38779.41185700607</v>
+        <v>49775.62141504246</v>
       </c>
       <c r="D6" t="n">
-        <v>38779.41185700613</v>
+        <v>49775.62141504249</v>
       </c>
       <c r="E6" t="n">
-        <v>-292768.7244798855</v>
+        <v>-287307.1521086481</v>
       </c>
       <c r="F6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="G6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="H6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="I6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="J6" t="n">
-        <v>77017.50696400437</v>
+        <v>82479.07933524164</v>
       </c>
       <c r="K6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="L6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.0219343479</v>
       </c>
       <c r="M6" t="n">
-        <v>32104.08888905251</v>
+        <v>37565.6612602898</v>
       </c>
       <c r="N6" t="n">
-        <v>140077.4495631106</v>
+        <v>145539.021934348</v>
       </c>
       <c r="O6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.021934348</v>
       </c>
       <c r="P6" t="n">
-        <v>140077.4495631107</v>
+        <v>145539.0219343479</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26764,19 +26764,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170867</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545557</v>
@@ -26822,13 +26822,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K11" t="n">
         <v>193.1674799081577</v>
@@ -31773,25 +31773,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479577</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35029,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35266,7 +35266,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35980,10 +35980,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181302</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730622</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,13 +37870,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38034,7 +38034,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38104,7 +38104,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338903</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
